--- a/Semaine 9/Journal de travail - Winston Meisen.xlsx
+++ b/Semaine 9/Journal de travail - Winston Meisen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Tâche effectuées</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mise à jour du rapport de travail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 25.11.2018 </t>
+  </si>
+  <si>
+    <t>Journal de travail mis à jour et envoie du ZIP</t>
   </si>
 </sst>
 </file>
@@ -232,9 +238,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -242,19 +261,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +570,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:G44"/>
+  <dimension ref="B3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,28 +583,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -611,24 +617,24 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
@@ -755,22 +761,22 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
@@ -985,34 +991,113 @@
         <v>31</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
+  <mergeCells count="67">
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="B5:G5"/>
@@ -1029,39 +1114,17 @@
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
